--- a/documents/Test plan - NAME OF THE APPLICATION plus CI - ict college (version 1).xlsx
+++ b/documents/Test plan - NAME OF THE APPLICATION plus CI - ict college (version 1).xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>wb</t>
   </si>
@@ -67,6 +66,30 @@
   </si>
   <si>
     <t>if u click the logo you get on the main page. If you click the rest you get to the other pages</t>
+  </si>
+  <si>
+    <t>all are working</t>
+  </si>
+  <si>
+    <t>this is working</t>
+  </si>
+  <si>
+    <t>slide bar shows 3 pictures</t>
+  </si>
+  <si>
+    <t>3 pictures repeating</t>
+  </si>
+  <si>
+    <t>this is working. Only the hight will varied.</t>
+  </si>
+  <si>
+    <t>nav bar is working on every page</t>
+  </si>
+  <si>
+    <t>nav bar is on every page the same</t>
+  </si>
+  <si>
+    <t>this works.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +489,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +555,13 @@
       <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -548,18 +575,46 @@
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
